--- a/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9330"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>日期</t>
   </si>
@@ -35,22 +35,34 @@
   </si>
   <si>
     <t>渠道同事</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>扫码支付通道打开，扫码支付无效。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日久料理</t>
+  </si>
+  <si>
+    <t>顾鹏</t>
+  </si>
+  <si>
+    <t>结账金额为0时，只有部分结算方式可以使用。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +94,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,12 +247,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -125,9 +461,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -157,10 +735,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -451,19 +1076,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
@@ -473,7 +1098,7 @@
     <col min="6" max="6" width="71.25" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -493,7 +1118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="6">
         <v>43113</v>
       </c>
@@ -510,48 +1135,60 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="D3" s="7"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6">
+        <v>43117</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="2:4">
       <c r="B7" s="7"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="2:2">
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="2:2">
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="2:2">
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="21300" windowHeight="8922"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -94,6 +94,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -102,62 +124,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,9 +170,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,34 +209,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,30 +477,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -516,7 +492,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,17 +527,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +550,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +567,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -579,133 +579,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,20 +1085,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.2522522522523" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.25" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.1261261261261" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.6216216216216" style="3" customWidth="1"/>
+    <col min="5" max="5" width="70.2522522522522" style="4" customWidth="1"/>
+    <col min="6" max="6" width="71.2522522522522" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="20.1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1145,33 +1145,29 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:2">
       <c r="B7" s="7"/>
-      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="7"/>

--- a/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21300" windowHeight="8922"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>日期</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>结账金额为0时，只有部分结算方式可以使用。</t>
+  </si>
+  <si>
+    <t>设置自定义模版后，打印预结账单和结账单，打印机不出单</t>
+  </si>
+  <si>
+    <t>选取自定义模板中的相对应的预结账单和结账单模板，读取默认模板然后保存模版</t>
   </si>
 </sst>
 </file>
@@ -57,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -101,6 +107,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -110,38 +170,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,38 +185,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,17 +216,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,55 +259,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,49 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,60 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,12 +440,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,17 +468,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,52 +537,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,15 +565,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -567,10 +573,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,130 +588,130 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,20 +1091,20 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.2522522522523" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="2" customWidth="1"/>
     <col min="2" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1261261261261" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.6216216216216" style="3" customWidth="1"/>
-    <col min="5" max="5" width="70.2522522522522" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71.2522522522522" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="70.25" style="4" customWidth="1"/>
+    <col min="6" max="6" width="76.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1152,9 +1158,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6"/>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6">
+        <v>43129</v>
+      </c>
       <c r="B4" s="7"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="6"/>

--- a/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>日期</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t>选取自定义模板中的相对应的预结账单和结账单模板，读取默认模板然后保存模版</t>
+  </si>
+  <si>
+    <t>2月7号</t>
+  </si>
+  <si>
+    <t>鲜牛一锅</t>
+  </si>
+  <si>
+    <t>打印机没有打印纸后加新的打印纸，不继续打印未打印完的制作单</t>
+  </si>
+  <si>
+    <t>重启</t>
   </si>
 </sst>
 </file>
@@ -101,15 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,25 +134,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,15 +156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,9 +172,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,13 +203,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,21 +211,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +271,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,41 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,13 +504,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +543,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -573,10 +585,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1103,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1162,7 +1174,9 @@
       <c r="A4" s="6">
         <v>43129</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7">
+        <v>4</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1176,10 +1190,25 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="6"/>

--- a/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
+++ b/问题记录/《项目问题记录表》-南京实施部-顾鹏.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8520"/>
+    <workbookView windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>重启</t>
+  </si>
+  <si>
+    <t>苗酸鱼粉</t>
+  </si>
+  <si>
+    <t>一个类别的菜品设置正确的出品部门和打印机不出制作单</t>
+  </si>
+  <si>
+    <t>将该类别的出品部门切换到别的出品部门，在切换回准确的部门，重新登录</t>
   </si>
 </sst>
 </file>
@@ -75,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -112,8 +121,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,55 +241,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,61 +257,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -271,25 +280,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,157 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,6 +485,36 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,41 +543,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,8 +581,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +606,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,8 +1111,8 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1210,10 +1219,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>43191</v>
+      </c>
+      <c r="B6" s="7">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="7"/>
